--- a/excels/Core/Trad TCE.xlsx
+++ b/excels/Core/Trad TCE.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rol\Roll20\Repos github\5etoolsEsp\excels\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E2188F-B26A-476D-8DB6-1698352FE63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDADA06-9071-48EE-A851-007CFB178FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="hazard" sheetId="3" r:id="rId1"/>
     <sheet name="class" sheetId="1" r:id="rId2"/>
-    <sheet name="optionalfeature" sheetId="2" r:id="rId3"/>
+    <sheet name="feat" sheetId="5" r:id="rId3"/>
+    <sheet name="optionalfeature" sheetId="2" r:id="rId4"/>
+    <sheet name="spells" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>Bárbaro</t>
   </si>
@@ -133,6 +135,237 @@
   </si>
   <si>
     <t>Thrym's Howl</t>
+  </si>
+  <si>
+    <t>Blade of Disaster</t>
+  </si>
+  <si>
+    <t>Booming Blade</t>
+  </si>
+  <si>
+    <t>Dream of the Blue Veil</t>
+  </si>
+  <si>
+    <t>Green-Flame Blade</t>
+  </si>
+  <si>
+    <t>Intellect Fortress</t>
+  </si>
+  <si>
+    <t>Lightning Lure</t>
+  </si>
+  <si>
+    <t>Mind Sliver</t>
+  </si>
+  <si>
+    <t>Spirit Shroud</t>
+  </si>
+  <si>
+    <t>Summon Aberration</t>
+  </si>
+  <si>
+    <t>Summon Beast</t>
+  </si>
+  <si>
+    <t>Summon Celestial</t>
+  </si>
+  <si>
+    <t>Summon Construct</t>
+  </si>
+  <si>
+    <t>Summon Elemental</t>
+  </si>
+  <si>
+    <t>Summon Fey</t>
+  </si>
+  <si>
+    <t>Summon Fiend</t>
+  </si>
+  <si>
+    <t>Summon Shadowspawn</t>
+  </si>
+  <si>
+    <t>Summon Undead</t>
+  </si>
+  <si>
+    <t>Sword Burst</t>
+  </si>
+  <si>
+    <t>Tasha's Caustic Brew</t>
+  </si>
+  <si>
+    <t>Tasha's Mind Whip</t>
+  </si>
+  <si>
+    <t>Tasha's Otherworldly Guise</t>
+  </si>
+  <si>
+    <t>Apariencia espectral de Tasha</t>
+  </si>
+  <si>
+    <t>Atracción del relámpago</t>
+  </si>
+  <si>
+    <t>Brebaje cáustico de Tasha</t>
+  </si>
+  <si>
+    <t>Estallido de espadas</t>
+  </si>
+  <si>
+    <t>Filo atronador</t>
+  </si>
+  <si>
+    <t>Filo de llamas verdes</t>
+  </si>
+  <si>
+    <t>Fortaleza del intelecto</t>
+  </si>
+  <si>
+    <t>Fragmento mental</t>
+  </si>
+  <si>
+    <t>Hoja de desastre</t>
+  </si>
+  <si>
+    <t>Invocar aberración</t>
+  </si>
+  <si>
+    <t>Invocar autómata</t>
+  </si>
+  <si>
+    <t>Invocar bestia</t>
+  </si>
+  <si>
+    <t>Invocar celestial</t>
+  </si>
+  <si>
+    <t>Invocar elemental</t>
+  </si>
+  <si>
+    <t>Invocar engendro de las sombras</t>
+  </si>
+  <si>
+    <t>Invocar feérico</t>
+  </si>
+  <si>
+    <t>Invocar infernal</t>
+  </si>
+  <si>
+    <t>Invocar muerto viviente</t>
+  </si>
+  <si>
+    <t>Látigo mental de Tasha</t>
+  </si>
+  <si>
+    <t>Mortaja espiritual</t>
+  </si>
+  <si>
+    <t>Sueño del velo azul</t>
+  </si>
+  <si>
+    <t>Artificer Initiate</t>
+  </si>
+  <si>
+    <t>Chef</t>
+  </si>
+  <si>
+    <t>Crusher</t>
+  </si>
+  <si>
+    <t>Eldritch Adept</t>
+  </si>
+  <si>
+    <t>Fey Touched</t>
+  </si>
+  <si>
+    <t>Fighting Initiate</t>
+  </si>
+  <si>
+    <t>Gunner</t>
+  </si>
+  <si>
+    <t>Metamagic Adept</t>
+  </si>
+  <si>
+    <t>Piercer</t>
+  </si>
+  <si>
+    <t>Poisoner</t>
+  </si>
+  <si>
+    <t>Shadow Touched</t>
+  </si>
+  <si>
+    <t>Skill Expert</t>
+  </si>
+  <si>
+    <t>Slasher</t>
+  </si>
+  <si>
+    <t>Telekinetic</t>
+  </si>
+  <si>
+    <t>Telepathic</t>
+  </si>
+  <si>
+    <t>Adepto de la Metamagia</t>
+  </si>
+  <si>
+    <t>Metamagia</t>
+  </si>
+  <si>
+    <t>Replicate Magic Item</t>
+  </si>
+  <si>
+    <t>Seeking Spell</t>
+  </si>
+  <si>
+    <t>Transmuted Spell</t>
+  </si>
+  <si>
+    <t>Conjuro Buscador</t>
+  </si>
+  <si>
+    <t>Conjuro Transmutado</t>
+  </si>
+  <si>
+    <t>Adepto Sobrenatural</t>
+  </si>
+  <si>
+    <t>Artillero</t>
+  </si>
+  <si>
+    <t>Envenenador</t>
+  </si>
+  <si>
+    <t>Experto en Habilidades</t>
+  </si>
+  <si>
+    <t>Iniciado Artífice</t>
+  </si>
+  <si>
+    <t>Iniciado en Combate</t>
+  </si>
+  <si>
+    <t>Perforador</t>
+  </si>
+  <si>
+    <t>Rebanador</t>
+  </si>
+  <si>
+    <t>Telepático</t>
+  </si>
+  <si>
+    <t>Telequinético</t>
+  </si>
+  <si>
+    <t>Toque Feérico</t>
+  </si>
+  <si>
+    <t>Toque Sombrío</t>
+  </si>
+  <si>
+    <t>Triturador</t>
   </si>
 </sst>
 </file>
@@ -528,8 +761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9378F701-1048-4A38-AC42-1C45B5C652BD}">
   <dimension ref="B1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +772,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -583,6 +816,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -590,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AV5"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AU5" sqref="AU5"/>
     </sheetView>
   </sheetViews>
@@ -718,34 +952,406 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FF0FF4F-EB35-41D5-8B72-ED53FCB24D07}">
+  <dimension ref="B1:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>26</v>
       </c>
+      <c r="D3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC4EB65C-048B-4E09-8030-1D102BB3B1AC}">
+  <dimension ref="B1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>